--- a/weighted_merge/evaluated/together.xlsx
+++ b/weighted_merge/evaluated/together.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haddo\DL_stack\Halimeda\weighted_merge\evaluated\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2C5811-3421-46D8-9425-103926734037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,77 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>acc</t>
+  </si>
+  <si>
+    <t>prec</t>
+  </si>
+  <si>
+    <t>rec</t>
+  </si>
+  <si>
+    <t>fall</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>auc</t>
+  </si>
+  <si>
+    <t>w_merge_0.8</t>
+  </si>
+  <si>
+    <t>w_merge_0.9</t>
+  </si>
+  <si>
+    <t>w_merge_0.75</t>
+  </si>
+  <si>
+    <t>w_merge_0.85</t>
+  </si>
+  <si>
+    <t>w_merge_0.95</t>
+  </si>
+  <si>
+    <t>w_merge_0.1</t>
+  </si>
+  <si>
+    <t>w_merge_0.2</t>
+  </si>
+  <si>
+    <t>w_merge_0.05</t>
+  </si>
+  <si>
+    <t>w_merge_0.15</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +102,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +130,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +438,429 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:M2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>105319436</v>
+      </c>
+      <c r="F2">
+        <v>51966963</v>
+      </c>
+      <c r="G2" s="4">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>0.89699778238932293</v>
+      </c>
+      <c r="I2">
+        <v>0.81248909838931027</v>
+      </c>
+      <c r="J2">
+        <v>0.89474053169625223</v>
+      </c>
+      <c r="K2">
+        <v>0.10188843966084279</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0.85163344763858873</v>
+      </c>
+      <c r="M2">
+        <v>0.95198046955998872</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>105319436</v>
+      </c>
+      <c r="F3">
+        <v>51966963</v>
+      </c>
+      <c r="G3">
+        <v>33</v>
+      </c>
+      <c r="H3">
+        <v>0.89681334199999996</v>
+      </c>
+      <c r="I3">
+        <v>0.81130591600000002</v>
+      </c>
+      <c r="J3">
+        <v>0.89610584100000001</v>
+      </c>
+      <c r="K3">
+        <v>0.10283756199999999</v>
+      </c>
+      <c r="L3">
+        <v>0.851600052</v>
+      </c>
+      <c r="M3">
+        <v>0.95262067900000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>105319436</v>
+      </c>
+      <c r="F4">
+        <v>51966963</v>
+      </c>
+      <c r="G4">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>0.89617233276367192</v>
+      </c>
+      <c r="I4">
+        <v>0.80763993465336481</v>
+      </c>
+      <c r="J4">
+        <v>0.90014017366879462</v>
+      </c>
+      <c r="K4">
+        <v>0.1057854886347853</v>
+      </c>
+      <c r="L4">
+        <v>0.85138496167984745</v>
+      </c>
+      <c r="M4">
+        <v>0.95023922680200745</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>105319436</v>
+      </c>
+      <c r="F5">
+        <v>51966962</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>0.89594257354736329</v>
+      </c>
+      <c r="I5">
+        <v>0.81023186146231263</v>
+      </c>
+      <c r="J5">
+        <v>0.89457623500961114</v>
+      </c>
+      <c r="K5">
+        <v>0.1033832444754072</v>
+      </c>
+      <c r="L5">
+        <v>0.85031760420633518</v>
+      </c>
+      <c r="M5">
+        <v>0.9458635339918956</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>105319436</v>
+      </c>
+      <c r="F6">
+        <v>51966963</v>
+      </c>
+      <c r="G6">
+        <v>41</v>
+      </c>
+      <c r="H6">
+        <v>0.89531616846720374</v>
+      </c>
+      <c r="I6">
+        <v>0.80882955758158215</v>
+      </c>
+      <c r="J6">
+        <v>0.89460021178069971</v>
+      </c>
+      <c r="K6">
+        <v>0.1043305624994042</v>
+      </c>
+      <c r="L6">
+        <v>0.84955553380737447</v>
+      </c>
+      <c r="M6">
+        <v>0.95347237349918956</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>105319435</v>
+      </c>
+      <c r="F7">
+        <v>51966947</v>
+      </c>
+      <c r="G7">
+        <v>128</v>
+      </c>
+      <c r="H7">
+        <v>0.89183560053507482</v>
+      </c>
+      <c r="I7">
+        <v>0.80947200218493898</v>
+      </c>
+      <c r="J7">
+        <v>0.87967486420796104</v>
+      </c>
+      <c r="K7">
+        <v>0.102164020323846</v>
+      </c>
+      <c r="L7">
+        <v>0.84311457786116828</v>
+      </c>
+      <c r="M7">
+        <v>0.95522372951173851</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>105319435</v>
+      </c>
+      <c r="F8">
+        <v>51966930</v>
+      </c>
+      <c r="G8">
+        <v>135</v>
+      </c>
+      <c r="H8">
+        <v>0.8914148267110189</v>
+      </c>
+      <c r="I8">
+        <v>0.80854337024198353</v>
+      </c>
+      <c r="J8">
+        <v>0.87964157382755703</v>
+      </c>
+      <c r="K8">
+        <v>0.1027759871406831</v>
+      </c>
+      <c r="L8">
+        <v>0.84259531540781041</v>
+      </c>
+      <c r="M8">
+        <v>0.95493598163978177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>94</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>105319433</v>
+      </c>
+      <c r="F9">
+        <v>51966870</v>
+      </c>
+      <c r="G9">
+        <v>143</v>
+      </c>
+      <c r="H9">
+        <v>0.89116475399999995</v>
+      </c>
+      <c r="I9">
+        <v>0.80874523499999995</v>
+      </c>
+      <c r="J9">
+        <v>0.87829460299999995</v>
+      </c>
+      <c r="K9">
+        <v>0.102484825</v>
+      </c>
+      <c r="L9">
+        <v>0.84208630900000003</v>
+      </c>
+      <c r="M9">
+        <v>0.95456255999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>588</v>
+      </c>
+      <c r="D10">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>105319411</v>
+      </c>
+      <c r="F10">
+        <v>51966376</v>
+      </c>
+      <c r="G10">
+        <v>150</v>
+      </c>
+      <c r="H10">
+        <v>0.89075609200000005</v>
+      </c>
+      <c r="I10">
+        <v>0.80788957299999997</v>
+      </c>
+      <c r="J10">
+        <v>0.87818089600000004</v>
+      </c>
+      <c r="K10">
+        <v>0.10303902500000001</v>
+      </c>
+      <c r="L10">
+        <v>0.84157003200000002</v>
+      </c>
+      <c r="M10">
+        <v>0.95394908700000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M10">
+    <sortCondition descending="1" ref="L1:L10"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>